--- a/umit_files_xlsx/umit_mat.xlsx
+++ b/umit_files_xlsx/umit_mat.xlsx
@@ -3033,12 +3033,12 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деление десятичной дроби на 10, 100, 1000 и т.д.")</f>
-        <v>Деление десятичной дроби на 10, 100, 1000 и т.д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод десятичной дроби в обыкновенную")</f>
+        <v>Перевод десятичной дроби в обыкновенную</v>
       </c>
       <c r="B27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
+        <v>27</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3107,12 +3107,12 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод десятичной дроби в обыкновенную")</f>
-        <v>Перевод десятичной дроби в обыкновенную</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод обыкновенной дроби в десятичную")</f>
+        <v>Перевод обыкновенной дроби в десятичную</v>
       </c>
       <c r="B28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),27.0)</f>
-        <v>27</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3181,12 +3181,12 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод обыкновенной дроби в десятичную")</f>
-        <v>Перевод обыкновенной дроби в десятичную</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод смешанного числа в десятичную дробь")</f>
+        <v>Перевод смешанного числа в десятичную дробь</v>
       </c>
       <c r="B29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
+        <v>29</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3255,12 +3255,12 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перевод смешанного числа в десятичную дробь")</f>
-        <v>Перевод смешанного числа в десятичную дробь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок выполнения действий")</f>
+        <v>Порядок выполнения действий</v>
       </c>
       <c r="B30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),29.0)</f>
-        <v>29</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3323,12 +3323,12 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Порядок выполнения действий")</f>
-        <v>Порядок выполнения действий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Действия с числами разных знаков (отрицательные, положительные, сложение, вычитание, умножение, деление)")</f>
+        <v>Действия с числами разных знаков (отрицательные, положительные, сложение, вычитание, умножение, деление)</v>
       </c>
       <c r="B31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
+        <v>31</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3391,12 +3391,12 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Действия с числами разных знаков (отрицательные, положительные, сложение, вычитание, умножение, деление)")</f>
-        <v>Действия с числами разных знаков (отрицательные, положительные, сложение, вычитание, умножение, деление)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление до целого, десятых, сотых и т.д.")</f>
+        <v>Округление до целого, десятых, сотых и т.д.</v>
       </c>
       <c r="B32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31.0)</f>
-        <v>31</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3459,12 +3459,12 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление до целого, десятых, сотых и т.д.")</f>
-        <v>Округление до целого, десятых, сотых и т.д.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление с недостатком")</f>
+        <v>Округление с недостатком</v>
       </c>
       <c r="B33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3521,12 +3521,12 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление с недостатком")</f>
-        <v>Округление с недостатком</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление с избытком")</f>
+        <v>Округление с избытком</v>
       </c>
       <c r="B34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
-        <v>33</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3583,12 +3583,12 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Округление с избытком")</f>
-        <v>Округление с избытком</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Процент")</f>
+        <v>Процент</v>
       </c>
       <c r="B35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3645,12 +3645,12 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Процент")</f>
-        <v>Процент</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Увеличение числа на проценты")</f>
+        <v>Увеличение числа на проценты</v>
       </c>
       <c r="B36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3707,12 +3707,12 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Увеличение числа на проценты")</f>
-        <v>Увеличение числа на проценты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уменьшение числа на проценты")</f>
+        <v>Уменьшение числа на проценты</v>
       </c>
       <c r="B37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3769,12 +3769,12 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уменьшение числа на проценты")</f>
-        <v>Уменьшение числа на проценты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на скидку")</f>
+        <v>Задачи на скидку</v>
       </c>
       <c r="B38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
-        <v>37</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
+        <v>39</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3825,12 +3825,12 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на скидку")</f>
-        <v>Задачи на скидку</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задача на увеличение цены")</f>
+        <v>Задача на увеличение цены</v>
       </c>
       <c r="B39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),39.0)</f>
-        <v>39</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3881,12 +3881,12 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задача на увеличение цены")</f>
-        <v>Задача на увеличение цены</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы сокращенного умножения")</f>
+        <v>Формулы сокращенного умножения</v>
       </c>
       <c r="B40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
+        <v>41</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3937,12 +3937,12 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы сокращенного умножения")</f>
-        <v>Формулы сокращенного умножения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание одночленов")</f>
+        <v>Сложение и вычитание одночленов</v>
       </c>
       <c r="B41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),41.0)</f>
-        <v>41</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3993,12 +3993,12 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание одночленов")</f>
-        <v>Сложение и вычитание одночленов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение одночленов")</f>
+        <v>Умножение одночленов</v>
       </c>
       <c r="B42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4049,12 +4049,12 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение одночленов")</f>
-        <v>Умножение одночленов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возведение одночленов в степень")</f>
+        <v>Возведение одночленов в степень</v>
       </c>
       <c r="B43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
-        <v>43</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4105,12 +4105,12 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возведение одночленов в степень")</f>
-        <v>Возведение одночленов в степень</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание многочленов")</f>
+        <v>Сложение и вычитание многочленов</v>
       </c>
       <c r="B44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
+        <v>45</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4161,12 +4161,12 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание многочленов")</f>
-        <v>Сложение и вычитание многочленов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение многочлена на одночлен")</f>
+        <v>Умножение многочлена на одночлен</v>
       </c>
       <c r="B45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45.0)</f>
-        <v>45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4217,12 +4217,12 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение многочлена на одночлен")</f>
-        <v>Умножение многочлена на одночлен</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение многочлена на многочлен")</f>
+        <v>Умножение многочлена на многочлен</v>
       </c>
       <c r="B46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
+        <v>47</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4273,12 +4273,12 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение многочлена на многочлен")</f>
-        <v>Умножение многочлена на многочлен</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деление многочлена на одночлен")</f>
+        <v>Деление многочлена на одночлен</v>
       </c>
       <c r="B47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),47.0)</f>
-        <v>47</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -4329,12 +4329,12 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деление многочлена на одночлен")</f>
-        <v>Деление многочлена на одночлен</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынесение общего множителя за скобки")</f>
+        <v>Вынесение общего множителя за скобки</v>
       </c>
       <c r="B48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4385,12 +4385,12 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вынесение общего множителя за скобки")</f>
-        <v>Вынесение общего множителя за скобки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способ группировки")</f>
+        <v>Способ группировки</v>
       </c>
       <c r="B49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
-        <v>49</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4441,12 +4441,12 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способ группировки")</f>
-        <v>Способ группировки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение многочленов на множители с помощью формул сокращенного умножения")</f>
+        <v>Разложение многочленов на множители с помощью формул сокращенного умножения</v>
       </c>
       <c r="B50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
-        <v>50</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
+        <v>51</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4497,12 +4497,12 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение многочленов на множители с помощью формул сокращенного умножения")</f>
-        <v>Разложение многочленов на множители с помощью формул сокращенного умножения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение многочленов на множители с помощью комбинации различных приемов")</f>
+        <v>Разложение многочленов на множители с помощью комбинации различных приемов</v>
       </c>
       <c r="B51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),51.0)</f>
-        <v>51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
+        <v>52</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4547,12 +4547,12 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение многочленов на множители с помощью комбинации различных приемов")</f>
-        <v>Разложение многочленов на множители с помощью комбинации различных приемов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сокращение алгебраических дробей")</f>
+        <v>Сокращение алгебраических дробей</v>
       </c>
       <c r="B52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),52.0)</f>
-        <v>52</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4597,12 +4597,12 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сокращение алгебраических дробей")</f>
-        <v>Сокращение алгебраических дробей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное свойство алгебраической дроби")</f>
+        <v>Основное свойство алгебраической дроби</v>
       </c>
       <c r="B53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
+        <v>54</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4615,12 +4615,12 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Касательная к окружности")</f>
-        <v>Касательная к окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центральные и вписанные углы")</f>
+        <v>Центральные и вписанные углы</v>
       </c>
       <c r="N53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
-        <v>663</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
+        <v>664</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4647,12 +4647,12 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное свойство алгебраической дроби")</f>
-        <v>Основное свойство алгебраической дроби</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание алгебраических дробей с одинаковыми знаменателями")</f>
+        <v>Сложение и вычитание алгебраических дробей с одинаковыми знаменателями</v>
       </c>
       <c r="B54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),54.0)</f>
-        <v>54</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
+        <v>55</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4665,12 +4665,12 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центральные и вписанные углы")</f>
-        <v>Центральные и вписанные углы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градусная мера дуги окружности")</f>
+        <v>Градусная мера дуги окружности</v>
       </c>
       <c r="N54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
-        <v>664</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
+        <v>665</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4697,12 +4697,12 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание алгебраических дробей с одинаковыми знаменателями")</f>
-        <v>Сложение и вычитание алгебраических дробей с одинаковыми знаменателями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание алгебраических дробей с разными знаменателями")</f>
+        <v>Сложение и вычитание алгебраических дробей с разными знаменателями</v>
       </c>
       <c r="B55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),55.0)</f>
-        <v>55</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
+        <v>56</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -4715,12 +4715,12 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градусная мера дуги окружности")</f>
-        <v>Градусная мера дуги окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о вписанном угле")</f>
+        <v>Теорема о вписанном угле</v>
       </c>
       <c r="N55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
-        <v>665</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
+        <v>666</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4747,12 +4747,12 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложение и вычитание алгебраических дробей с разными знаменателями")</f>
-        <v>Сложение и вычитание алгебраических дробей с разными знаменателями</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение и деление алгебраических дробей")</f>
+        <v>Умножение и деление алгебраических дробей</v>
       </c>
       <c r="B56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),56.0)</f>
-        <v>56</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -4765,12 +4765,12 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о вписанном угле")</f>
-        <v>Теорема о вписанном угле</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биссектрисы угла")</f>
+        <v>Свойства биссектрисы угла</v>
       </c>
       <c r="N56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
-        <v>666</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
+        <v>668</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4797,12 +4797,12 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умножение и деление алгебраических дробей")</f>
-        <v>Умножение и деление алгебраических дробей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возведение алгебраической дроби в степень")</f>
+        <v>Возведение алгебраической дроби в степень</v>
       </c>
       <c r="B57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
-        <v>57</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -4815,12 +4815,12 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биссектрисы угла")</f>
-        <v>Свойства биссектрисы угла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства серединного перпендикуляра к отрезку")</f>
+        <v>Свойства серединного перпендикуляра к отрезку</v>
       </c>
       <c r="N57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
-        <v>668</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
+        <v>669</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4841,12 +4841,12 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возведение алгебраической дроби в степень")</f>
-        <v>Возведение алгебраической дроби в степень</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование рациональных выражений")</f>
+        <v>Преобразование рациональных выражений</v>
       </c>
       <c r="B58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
+        <v>59</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -4859,12 +4859,12 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства серединного перпендикуляра к отрезку")</f>
-        <v>Свойства серединного перпендикуляра к отрезку</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пересечении высот треугольника")</f>
+        <v>Теорема о пересечении высот треугольника</v>
       </c>
       <c r="N58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
-        <v>669</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
+        <v>670</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4885,12 +4885,12 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование рациональных выражений")</f>
-        <v>Преобразование рациональных выражений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорции")</f>
+        <v>Пропорции</v>
       </c>
       <c r="B59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),59.0)</f>
-        <v>59</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
+        <v>60</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -4903,12 +4903,12 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пересечении высот треугольника")</f>
-        <v>Теорема о пересечении высот треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вписанная окружность")</f>
+        <v>Вписанная окружность</v>
       </c>
       <c r="N59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
-        <v>670</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
+        <v>671</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4929,12 +4929,12 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорции")</f>
-        <v>Пропорции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Среднее арифметическое ")</f>
+        <v>Среднее арифметическое </v>
       </c>
       <c r="B60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),60.0)</f>
-        <v>60</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4947,12 +4947,12 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вписанная окружность")</f>
-        <v>Вписанная окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная окружность")</f>
+        <v>Описанная окружность</v>
       </c>
       <c r="N60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
-        <v>671</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
+        <v>672</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4972,14 +4972,8 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Среднее арифметическое ")</f>
-        <v>Среднее арифметическое </v>
-      </c>
-      <c r="B61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
-        <v>61</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4991,12 +4985,12 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная окружность")</f>
-        <v>Описанная окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия трапеции")</f>
+        <v>Средняя линия трапеции</v>
       </c>
       <c r="N61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
-        <v>672</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
+        <v>673</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -5029,12 +5023,12 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия трапеции")</f>
-        <v>Средняя линия трапеции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение окружности")</f>
+        <v>Уравнение окружности</v>
       </c>
       <c r="N62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
-        <v>673</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
+        <v>675</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -5067,12 +5061,12 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение окружности")</f>
-        <v>Уравнение окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение двух окружностей")</f>
+        <v>Взаимное расположение двух окружностей</v>
       </c>
       <c r="N63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
-        <v>675</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
+        <v>677</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -5105,12 +5099,12 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение двух окружностей")</f>
-        <v>Взаимное расположение двух окружностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о площади треугольника")</f>
+        <v>Теорема о площади треугольника</v>
       </c>
       <c r="N64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
-        <v>677</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
+        <v>678</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -5143,12 +5137,12 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о площади треугольника")</f>
-        <v>Теорема о площади треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема синусов")</f>
+        <v>Теорема синусов</v>
       </c>
       <c r="N65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
-        <v>678</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
+        <v>679</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5181,12 +5175,12 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема синусов")</f>
-        <v>Теорема синусов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема косинусов")</f>
+        <v>Теорема косинусов</v>
       </c>
       <c r="N66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
-        <v>679</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
+        <v>680</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -5219,12 +5213,12 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема косинусов")</f>
-        <v>Теорема косинусов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, описанная около правильного многоугольника")</f>
+        <v>Окружность, описанная около правильного многоугольника</v>
       </c>
       <c r="N67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
-        <v>680</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
+        <v>682</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5257,12 +5251,12 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, описанная около правильного многоугольника")</f>
-        <v>Окружность, описанная около правильного многоугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, вписанная в правильный многоугольник")</f>
+        <v>Окружность, вписанная в правильный многоугольник</v>
       </c>
       <c r="N68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
-        <v>682</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
+        <v>683</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5295,12 +5289,12 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, вписанная в правильный многоугольник")</f>
-        <v>Окружность, вписанная в правильный многоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности")</f>
+        <v>Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности</v>
       </c>
       <c r="N69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
-        <v>683</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
+        <v>684</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5333,12 +5327,12 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности")</f>
-        <v>Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина окружности")</f>
+        <v>Длина окружности</v>
       </c>
       <c r="N70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
-        <v>684</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
+        <v>686</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5371,12 +5365,12 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина окружности")</f>
-        <v>Длина окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь круга")</f>
+        <v>Площадь круга</v>
       </c>
       <c r="N71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
-        <v>686</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
+        <v>687</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5409,12 +5403,12 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь круга")</f>
-        <v>Площадь круга</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь кругового сектора, кольца")</f>
+        <v>Площадь кругового сектора, кольца</v>
       </c>
       <c r="N72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
-        <v>687</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
+        <v>688</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5447,12 +5441,12 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь кругового сектора, кольца")</f>
-        <v>Площадь кругового сектора, кольца</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная и вписанная окружность для четырехугольника")</f>
+        <v>Описанная и вписанная окружность для четырехугольника</v>
       </c>
       <c r="N73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
-        <v>688</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
+        <v>689</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5485,12 +5479,12 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная и вписанная окружность для четырехугольника")</f>
-        <v>Описанная и вписанная окружность для четырехугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Секущая, касательная для окружности")</f>
+        <v>Секущая, касательная для окружности</v>
       </c>
       <c r="N74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
-        <v>689</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
+        <v>690</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5523,12 +5517,12 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Секущая, касательная для окружности")</f>
-        <v>Секущая, касательная для окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника через вписанную окружность")</f>
+        <v>Площадь треугольника через вписанную окружность</v>
       </c>
       <c r="N75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
-        <v>690</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
+        <v>691</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5561,12 +5555,12 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника через вписанную окружность")</f>
-        <v>Площадь треугольника через вписанную окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Углы между секущими и хордами в окружности")</f>
+        <v>Углы между секущими и хордами в окружности</v>
       </c>
       <c r="N76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
-        <v>691</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
+        <v>692</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5599,12 +5593,12 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Углы между секущими и хордами в окружности")</f>
-        <v>Углы между секущими и хордами в окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Менелая")</f>
+        <v>Теорема Менелая</v>
       </c>
       <c r="N77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
-        <v>692</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
+        <v>693</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5637,12 +5631,12 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Менелая")</f>
-        <v>Теорема Менелая</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Чевы")</f>
+        <v>Теорема Чевы</v>
       </c>
       <c r="N78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
-        <v>693</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
+        <v>694</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5675,12 +5669,12 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Чевы")</f>
-        <v>Теорема Чевы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Фалеса")</f>
+        <v>Теорема Фалеса</v>
       </c>
       <c r="N79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
-        <v>694</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
+        <v>695</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5713,12 +5707,12 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Фалеса")</f>
-        <v>Теорема Фалеса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пропорциональных отрезках")</f>
+        <v>Теорема о пропорциональных отрезках</v>
       </c>
       <c r="N80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
-        <v>695</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
+        <v>696</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5751,12 +5745,12 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пропорциональных отрезках")</f>
-        <v>Теорема о пропорциональных отрезках</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периметр")</f>
+        <v>Периметр</v>
       </c>
       <c r="N81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
-        <v>696</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
+        <v>697</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5789,12 +5783,12 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периметр")</f>
-        <v>Периметр</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный треугольник")</f>
+        <v>Правильный треугольник</v>
       </c>
       <c r="N82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
-        <v>697</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
+        <v>698</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5827,12 +5821,12 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный треугольник")</f>
-        <v>Правильный треугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный шестиугольник")</f>
+        <v>Правильный шестиугольник</v>
       </c>
       <c r="N83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
-        <v>698</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
+        <v>699</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5865,12 +5859,12 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный шестиугольник")</f>
-        <v>Правильный шестиугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод площадей")</f>
+        <v>Метод площадей</v>
       </c>
       <c r="N84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
-        <v>699</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5902,14 +5896,8 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод площадей")</f>
-        <v>Метод площадей</v>
-      </c>
-      <c r="N85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
-        <v>1301</v>
-      </c>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
